--- a/src/test/resources/SBAC-ICA-FIXED-G11M-Winter-2017-2018.xlsx
+++ b/src/test/resources/SBAC-ICA-FIXED-G11M-Winter-2017-2018.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miketrupkin/tds-project/fixed-form-packager/TDS_FixedFormPackager/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emunoz/trunk/sbrepo/repositories/TDS_FixedFormPackager/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE97780-E6F3-5E46-9C32-C7A9E1658146}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="45200" windowHeight="20020" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29260" yWindow="8880" windowWidth="28800" windowHeight="16300" tabRatio="644" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Package" sheetId="16" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="607">
   <si>
     <t>ItemId</t>
   </si>
@@ -610,9 +609,6 @@
   </si>
   <si>
     <t>MATH</t>
-  </si>
-  <si>
-    <t>SOCK-2</t>
   </si>
   <si>
     <t>SOCK_2</t>
@@ -1787,9 +1783,6 @@
     <t>SegmentIntercept</t>
   </si>
   <si>
-    <t>TestPackage.Blueprint.BlueprintElement</t>
-  </si>
-  <si>
     <t>The unique Blueprint Element ID</t>
   </si>
   <si>
@@ -1887,12 +1880,33 @@
   </si>
   <si>
     <t>ToolOptionDependencyDefault_2_2_2</t>
+  </si>
+  <si>
+    <t>BlueprintElementType</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>sock</t>
+  </si>
+  <si>
+    <t>TestPackage.Blueprint.BlueprintElement-type</t>
+  </si>
+  <si>
+    <t>The type of the Blueprint Element</t>
+  </si>
+  <si>
+    <t>TestPackage.Blueprint.BlueprintElement-id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2940,14 +2954,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1B9193-2321-4710-B4AB-EB38DCF0796F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2966,11 +2980,11 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2981,10 +2995,10 @@
         <v>186</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>187</v>
@@ -2998,10 +3012,10 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>191</v>
@@ -3015,7 +3029,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>167</v>
@@ -3032,7 +3046,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>168</v>
@@ -3049,7 +3063,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>183</v>
@@ -3066,7 +3080,7 @@
         <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>39</v>
@@ -3083,7 +3097,7 @@
         <v>109</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>40</v>
@@ -3100,7 +3114,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>41</v>
@@ -3117,7 +3131,7 @@
         <v>109</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>42</v>
@@ -3134,7 +3148,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>43</v>
@@ -3151,7 +3165,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>44</v>
@@ -3168,7 +3182,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>45</v>
@@ -3185,7 +3199,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>46</v>
@@ -3202,7 +3216,7 @@
         <v>109</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>47</v>
@@ -3219,7 +3233,7 @@
         <v>109</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>48</v>
@@ -3238,14 +3252,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="55" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3275,11 +3289,11 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -3315,10 +3329,10 @@
         <v>186</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>187</v>
@@ -3401,16 +3415,16 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
@@ -3473,13 +3487,13 @@
         <v>191</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA3" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB3" s="16" t="s">
         <v>195</v>
@@ -3493,356 +3507,384 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>127</v>
+        <v>604</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="16">
-        <v>60</v>
-      </c>
-      <c r="F4" s="16">
-        <v>70</v>
-      </c>
-      <c r="G4" s="16">
-        <v>84</v>
-      </c>
-      <c r="H4" s="16">
-        <v>120</v>
-      </c>
-      <c r="I4" s="16">
-        <v>130</v>
-      </c>
-      <c r="J4" s="16">
-        <v>140</v>
-      </c>
-      <c r="K4" s="16">
-        <v>62</v>
-      </c>
-      <c r="L4" s="16">
-        <v>72</v>
-      </c>
-      <c r="M4" s="16">
-        <v>86</v>
-      </c>
-      <c r="N4" s="16">
-        <v>122</v>
-      </c>
-      <c r="O4" s="16">
-        <v>132</v>
-      </c>
-      <c r="P4" s="16">
-        <v>142</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>10</v>
-      </c>
-      <c r="R4" s="16">
-        <v>20</v>
-      </c>
-      <c r="S4" s="16">
-        <v>30</v>
-      </c>
-      <c r="T4" s="16">
-        <v>35</v>
-      </c>
-      <c r="U4" s="16">
-        <v>90</v>
-      </c>
-      <c r="V4" s="16">
-        <v>100</v>
-      </c>
-      <c r="W4" s="16">
-        <v>110</v>
-      </c>
-      <c r="X4" s="16">
-        <v>300</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>85</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>141</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>61</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>121</v>
-      </c>
-      <c r="AD4" s="16">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="22" x14ac:dyDescent="0.15">
+        <v>605</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="16">
+        <v>60</v>
+      </c>
+      <c r="F5" s="16">
+        <v>70</v>
+      </c>
+      <c r="G5" s="16">
+        <v>84</v>
+      </c>
+      <c r="H5" s="16">
+        <v>120</v>
+      </c>
+      <c r="I5" s="16">
+        <v>130</v>
+      </c>
+      <c r="J5" s="16">
+        <v>140</v>
+      </c>
+      <c r="K5" s="16">
+        <v>62</v>
+      </c>
+      <c r="L5" s="16">
+        <v>72</v>
+      </c>
+      <c r="M5" s="16">
+        <v>86</v>
+      </c>
+      <c r="N5" s="16">
+        <v>122</v>
+      </c>
+      <c r="O5" s="16">
+        <v>132</v>
+      </c>
+      <c r="P5" s="16">
+        <v>142</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>10</v>
+      </c>
+      <c r="R5" s="16">
+        <v>20</v>
+      </c>
+      <c r="S5" s="16">
+        <v>30</v>
+      </c>
+      <c r="T5" s="16">
+        <v>35</v>
+      </c>
+      <c r="U5" s="16">
+        <v>90</v>
+      </c>
+      <c r="V5" s="16">
+        <v>100</v>
+      </c>
+      <c r="W5" s="16">
+        <v>110</v>
+      </c>
+      <c r="X5" s="16">
+        <v>300</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>85</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>141</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>121</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="22" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16" t="s">
+      <c r="D7" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>280</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD6" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
+      <c r="T7" s="16" t="s">
+        <v>278</v>
+      </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="s">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="AA7" s="16" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="AB7" s="16" t="s">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="AC7" s="16" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="AD7" s="16" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
@@ -3850,87 +3892,101 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA8" s="16" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="AB8" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC8" s="16" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="AD8" s="16" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="16"/>
+        <v>205</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="AA9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB9" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="AC9" s="16" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -3945,7 +4001,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -3954,33 +4010,33 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB10" s="16"/>
       <c r="AC10" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD10" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -3995,7 +4051,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16" t="s">
-        <v>301</v>
+        <v>71</v>
       </c>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
@@ -4004,88 +4060,74 @@
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="16">
-        <v>1</v>
+      <c r="AA11" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="AB11" s="16"/>
-      <c r="AC11" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>1</v>
+      <c r="AC11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="16">
-        <v>-2.9563999999999999</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="16">
-        <v>1.5</v>
-      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="16">
-        <v>-2.9563999999999999</v>
-      </c>
+      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="16">
-        <v>1.5</v>
-      </c>
+      <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="16">
-        <v>1</v>
-      </c>
-      <c r="R12" s="16">
-        <v>-2.9563999999999999</v>
-      </c>
+      <c r="Q12" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="16">
-        <v>1.5</v>
-      </c>
+      <c r="Z12" s="16"/>
       <c r="AA12" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="16">
-        <v>-2.9563999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="16"/>
       <c r="AC12" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="22" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>170</v>
@@ -4094,36 +4136,52 @@
         <v>290</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="E13" s="16">
+        <v>-2.9563999999999999</v>
+      </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16">
+        <v>1.5</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="K13" s="16">
+        <v>-2.9563999999999999</v>
+      </c>
       <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="M13" s="16">
+        <v>1.5</v>
+      </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R13" s="16"/>
+      <c r="Q13" s="16">
+        <v>1</v>
+      </c>
+      <c r="R13" s="16">
+        <v>-2.9563999999999999</v>
+      </c>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
+      <c r="X13" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
+      <c r="Z13" s="16">
+        <v>1.5</v>
+      </c>
       <c r="AA13" s="16">
         <v>2</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="16">
+        <v>-2.9563999999999999</v>
+      </c>
       <c r="AC13" s="16">
         <v>2</v>
       </c>
@@ -4131,18 +4189,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" ht="22" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -4156,8 +4214,8 @@
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
-      <c r="Q14" s="16">
-        <v>1</v>
+      <c r="Q14" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -4169,19 +4227,19 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB14" s="16"/>
       <c r="AC14" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="22" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>170</v>
@@ -4190,7 +4248,7 @@
         <v>290</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -4204,8 +4262,8 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="16" t="s">
-        <v>303</v>
+      <c r="Q15" s="16">
+        <v>1</v>
       </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -4216,23 +4274,29 @@
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
+      <c r="AA15" s="16">
+        <v>4</v>
+      </c>
       <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC15" s="16">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="22" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -4246,8 +4310,8 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="16">
-        <v>2</v>
+      <c r="Q16" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -4265,41 +4329,33 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="Q17" s="16">
+        <v>2</v>
+      </c>
+      <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
@@ -4307,52 +4363,48 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
-      <c r="Z17" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
-      <c r="AB17" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
     </row>
-    <row r="18" spans="1:30" ht="22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
@@ -4362,42 +4414,52 @@
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AA18" s="16"/>
       <c r="AB18" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>131</v>
+    <row r="19" spans="1:30" ht="22" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+      <c r="M19" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="R19" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
@@ -4405,24 +4467,28 @@
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
+      <c r="Z19" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
+      <c r="AB19" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -4453,16 +4519,16 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -4493,41 +4559,31 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="16">
-        <v>4.3803999999999998</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="16">
-        <v>3</v>
-      </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="16">
-        <v>4.3803999999999998</v>
-      </c>
+      <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="16">
-        <v>3</v>
-      </c>
+      <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="16">
-        <v>4.3803999999999998</v>
-      </c>
+      <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
@@ -4535,19 +4591,15 @@
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
-      <c r="Z22" s="16">
-        <v>3</v>
-      </c>
+      <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
-      <c r="AB22" s="16">
-        <v>4.3803999999999998</v>
-      </c>
+      <c r="AB22" s="16"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>170</v>
@@ -4556,22 +4608,32 @@
         <v>290</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="E23" s="16">
+        <v>4.3803999999999998</v>
+      </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="G23" s="16">
+        <v>3</v>
+      </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="K23" s="16">
+        <v>4.3803999999999998</v>
+      </c>
       <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="M23" s="16">
+        <v>3</v>
+      </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="R23" s="16">
+        <v>4.3803999999999998</v>
+      </c>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
@@ -4579,24 +4641,28 @@
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
+      <c r="Z23" s="16">
+        <v>3</v>
+      </c>
       <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
+      <c r="AB23" s="16">
+        <v>4.3803999999999998</v>
+      </c>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -4627,7 +4693,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>170</v>
@@ -4636,7 +4702,7 @@
         <v>290</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -4667,16 +4733,16 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -4707,41 +4773,31 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>73</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
-      <c r="R27" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
@@ -4749,52 +4805,48 @@
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
-      <c r="Z27" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="Z27" s="16"/>
       <c r="AA27" s="16"/>
-      <c r="AB27" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
@@ -4804,42 +4856,52 @@
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA28" s="16"/>
       <c r="AB28" s="16" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AC28" s="16"/>
       <c r="AD28" s="16"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="K29" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="M29" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="R29" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
@@ -4847,24 +4909,28 @@
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
+      <c r="Z29" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
+      <c r="AB29" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -4895,16 +4961,16 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -4935,41 +5001,31 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="16">
-        <v>2.5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E32" s="16"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="16">
-        <v>-2.9563999999999999</v>
-      </c>
+      <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="16">
-        <v>2.5</v>
-      </c>
+      <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="16">
-        <v>-2.9563999999999999</v>
-      </c>
+      <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="16">
-        <v>2.5</v>
-      </c>
+      <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
@@ -4977,19 +5033,15 @@
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
-      <c r="Z32" s="16">
-        <v>-2.9563999999999999</v>
-      </c>
+      <c r="Z32" s="16"/>
       <c r="AA32" s="16"/>
-      <c r="AB32" s="16">
-        <v>2.5</v>
-      </c>
+      <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>170</v>
@@ -4998,22 +5050,32 @@
         <v>290</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="E33" s="16">
+        <v>2.5</v>
+      </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="16">
+        <v>-2.9563999999999999</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="K33" s="16">
+        <v>2.5</v>
+      </c>
       <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
+      <c r="M33" s="16">
+        <v>-2.9563999999999999</v>
+      </c>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
+      <c r="R33" s="16">
+        <v>2.5</v>
+      </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
@@ -5021,24 +5083,28 @@
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
+      <c r="Z33" s="16">
+        <v>-2.9563999999999999</v>
+      </c>
       <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
+      <c r="AB33" s="16">
+        <v>2.5</v>
+      </c>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -5069,7 +5135,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>170</v>
@@ -5078,7 +5144,7 @@
         <v>290</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -5109,16 +5175,16 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -5149,30 +5215,26 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
@@ -5185,33 +5247,29 @@
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
-      <c r="Z37" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
-      <c r="AB37" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="AB37" s="16"/>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
@@ -5219,7 +5277,7 @@
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
@@ -5234,37 +5292,41 @@
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
       <c r="Z38" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AA38" s="16"/>
       <c r="AB38" s="16" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
+      <c r="M39" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
@@ -5277,26 +5339,28 @@
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
+      <c r="Z39" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="AA39" s="16"/>
       <c r="AB39" s="16" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -5322,23 +5386,23 @@
       <c r="Z40" s="16"/>
       <c r="AA40" s="16"/>
       <c r="AB40" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -5363,38 +5427,34 @@
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
       <c r="AA41" s="16"/>
-      <c r="AB41" s="16">
-        <v>1</v>
+      <c r="AB41" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="16">
-        <v>4.3803999999999998</v>
-      </c>
+      <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
-      <c r="M42" s="16">
-        <v>4.3803999999999998</v>
-      </c>
+      <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -5407,19 +5467,17 @@
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
-      <c r="Z42" s="16">
-        <v>4.3803999999999998</v>
-      </c>
+      <c r="Z42" s="16"/>
       <c r="AA42" s="16"/>
       <c r="AB42" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>170</v>
@@ -5428,17 +5486,21 @@
         <v>290</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="16">
+        <v>4.3803999999999998</v>
+      </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+      <c r="M43" s="16">
+        <v>4.3803999999999998</v>
+      </c>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
@@ -5451,7 +5513,9 @@
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
+      <c r="Z43" s="16">
+        <v>4.3803999999999998</v>
+      </c>
       <c r="AA43" s="16"/>
       <c r="AB43" s="16">
         <v>2</v>
@@ -5461,16 +5525,16 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
@@ -5496,14 +5560,14 @@
       <c r="Z44" s="16"/>
       <c r="AA44" s="16"/>
       <c r="AB44" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>170</v>
@@ -5512,7 +5576,7 @@
         <v>290</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -5537,22 +5601,24 @@
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
       <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
+      <c r="AB45" s="16">
+        <v>4</v>
+      </c>
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -5581,21 +5647,61 @@
       <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
     </row>
-    <row r="48" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:5" ht="59" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E50" s="15" t="s">
-        <v>308</v>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+    </row>
+    <row r="49" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:5" ht="59" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E51" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="E1:AD49">
+  <sortState columnSort="1" ref="E1:AD50">
     <sortCondition ref="E3:AD3"/>
-    <sortCondition ref="E4:AD4"/>
+    <sortCondition ref="E5:AD5"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -5608,14 +5714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -5635,11 +5741,11 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F1" s="25"/>
     </row>
@@ -5651,10 +5757,10 @@
         <v>186</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>187</v>
@@ -5671,7 +5777,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>182</v>
@@ -5680,7 +5786,7 @@
         <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -5691,10 +5797,10 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>192</v>
@@ -5715,14 +5821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -5743,15 +5849,15 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5762,10 +5868,10 @@
         <v>186</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>187</v>
@@ -5785,19 +5891,19 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5808,7 +5914,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>182</v>
@@ -5820,7 +5926,7 @@
         <v>191</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5831,7 +5937,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>2</v>
@@ -5854,19 +5960,19 @@
         <v>170</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5877,7 +5983,7 @@
         <v>170</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>180</v>
@@ -5900,7 +6006,7 @@
         <v>170</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>181</v>
@@ -5923,10 +6029,10 @@
         <v>109</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>1</v>
@@ -5946,10 +6052,10 @@
         <v>170</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>1</v>
@@ -5969,10 +6075,10 @@
         <v>170</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>1</v>
@@ -5992,7 +6098,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>190</v>
@@ -6015,10 +6121,10 @@
         <v>109</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E13" s="8">
         <v>2514.9</v>
@@ -6041,14 +6147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AQ56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="AD2" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -6058,22 +6164,22 @@
     <col min="3" max="3" width="41.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="20.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="37" width="19" style="19" bestFit="1" customWidth="1"/>
-    <col min="38" max="43" width="19.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="32.83203125" style="19"/>
+    <col min="11" max="36" width="19" style="19" bestFit="1" customWidth="1"/>
+    <col min="37" max="42" width="19.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="32.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -6081,7 +6187,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -6108,17 +6214,16 @@
       <c r="AH1" s="26"/>
       <c r="AI1" s="26"/>
       <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="27" t="s">
-        <v>306</v>
-      </c>
+      <c r="AK1" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL1" s="27"/>
       <c r="AM1" s="27"/>
       <c r="AN1" s="27"/>
       <c r="AO1" s="27"/>
       <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>185</v>
       </c>
@@ -6126,10 +6231,10 @@
         <v>186</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>187</v>
@@ -6207,7 +6312,7 @@
         <v>187</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="AE2" s="10" t="s">
         <v>187</v>
@@ -6245,11 +6350,8 @@
       <c r="AP2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="AQ2" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" ht="22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:42" ht="22" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>120</v>
       </c>
@@ -6257,401 +6359,392 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK3" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN3" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO3" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AP3" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" ht="22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:42" ht="22" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>258</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP5" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="AQ5" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -6728,7 +6821,9 @@
       <c r="AC6" s="5">
         <v>2</v>
       </c>
-      <c r="AD6" s="5"/>
+      <c r="AD6" s="5">
+        <v>2</v>
+      </c>
       <c r="AE6" s="5">
         <v>2</v>
       </c>
@@ -6748,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="AK6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="5">
         <v>1</v>
@@ -6765,11 +6860,8 @@
       <c r="AP6" s="5">
         <v>1</v>
       </c>
-      <c r="AQ6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -6777,10 +6869,10 @@
         <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -6857,48 +6949,47 @@
       <c r="AC7" s="5">
         <v>19</v>
       </c>
-      <c r="AD7" s="5"/>
+      <c r="AD7" s="5">
+        <v>20</v>
+      </c>
       <c r="AE7" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF7" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG7" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH7" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK7" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN7" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP7" s="5">
-        <v>5</v>
-      </c>
-      <c r="AQ7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
@@ -6906,7 +6997,7 @@
         <v>109</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>0</v>
@@ -6986,322 +7077,315 @@
       <c r="AC8" s="1">
         <v>25798</v>
       </c>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="1">
+        <v>31399</v>
+      </c>
       <c r="AE8" s="1">
-        <v>31399</v>
+        <v>26972</v>
       </c>
       <c r="AF8" s="1">
-        <v>26972</v>
+        <v>6724</v>
       </c>
       <c r="AG8" s="1">
-        <v>6724</v>
+        <v>11984</v>
       </c>
       <c r="AH8" s="1">
-        <v>11984</v>
+        <v>11429</v>
       </c>
       <c r="AI8" s="1">
-        <v>11429</v>
+        <v>33948</v>
       </c>
       <c r="AJ8" s="1">
-        <v>33948</v>
+        <v>32692</v>
       </c>
       <c r="AK8" s="1">
-        <v>32692</v>
+        <v>21559</v>
       </c>
       <c r="AL8" s="1">
-        <v>21559</v>
+        <v>21560</v>
       </c>
       <c r="AM8" s="1">
-        <v>21560</v>
+        <v>21561</v>
       </c>
       <c r="AN8" s="1">
-        <v>21561</v>
+        <v>21562</v>
       </c>
       <c r="AO8" s="1">
-        <v>21562</v>
+        <v>21563</v>
       </c>
       <c r="AP8" s="1">
-        <v>21563</v>
-      </c>
-      <c r="AQ8" s="1">
         <v>21564</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="X10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="E11" s="1" t="b">
         <v>1</v>
       </c>
@@ -7416,22 +7500,19 @@
       <c r="AP11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AQ11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>565</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -7471,9 +7552,8 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>141</v>
       </c>
@@ -7481,7 +7561,7 @@
         <v>170</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>171</v>
@@ -7524,9 +7604,8 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>140</v>
       </c>
@@ -7575,9 +7654,8 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>134</v>
       </c>
@@ -7626,9 +7704,8 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>135</v>
       </c>
@@ -7677,9 +7754,8 @@
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>136</v>
       </c>
@@ -7728,9 +7804,8 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>137</v>
       </c>
@@ -7779,9 +7854,8 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>138</v>
       </c>
@@ -7830,9 +7904,8 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>139</v>
       </c>
@@ -7881,9 +7954,8 @@
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>121</v>
       </c>
@@ -7932,9 +8004,8 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>122</v>
       </c>
@@ -7983,9 +8054,8 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>123</v>
       </c>
@@ -8034,9 +8104,8 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>124</v>
       </c>
@@ -8085,9 +8154,8 @@
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>125</v>
       </c>
@@ -8136,9 +8204,8 @@
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>125</v>
       </c>
@@ -8187,9 +8254,8 @@
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>125</v>
       </c>
@@ -8238,9 +8304,8 @@
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
@@ -8289,9 +8354,8 @@
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>125</v>
       </c>
@@ -8340,9 +8404,8 @@
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>125</v>
       </c>
@@ -8391,9 +8454,8 @@
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>125</v>
       </c>
@@ -8442,9 +8504,8 @@
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>125</v>
       </c>
@@ -8493,9 +8554,8 @@
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>121</v>
       </c>
@@ -8544,9 +8604,8 @@
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>122</v>
       </c>
@@ -8595,9 +8654,8 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>123</v>
       </c>
@@ -8646,9 +8704,8 @@
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>124</v>
       </c>
@@ -8697,9 +8754,8 @@
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>125</v>
       </c>
@@ -8748,9 +8804,8 @@
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>125</v>
       </c>
@@ -8799,9 +8854,8 @@
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
       <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>125</v>
       </c>
@@ -8850,9 +8904,8 @@
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
       <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>125</v>
       </c>
@@ -8901,9 +8954,8 @@
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>125</v>
       </c>
@@ -8952,9 +9004,8 @@
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>125</v>
       </c>
@@ -9003,9 +9054,8 @@
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
       <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>125</v>
       </c>
@@ -9054,9 +9104,8 @@
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
       <c r="AP43" s="4"/>
-      <c r="AQ43" s="4"/>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>125</v>
       </c>
@@ -9105,9 +9154,8 @@
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4"/>
-      <c r="AQ44" s="4"/>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>121</v>
       </c>
@@ -9156,9 +9204,8 @@
       <c r="AN45" s="1"/>
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
-      <c r="AQ45" s="1"/>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>122</v>
       </c>
@@ -9207,9 +9254,8 @@
       <c r="AN46" s="1"/>
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>123</v>
       </c>
@@ -9258,9 +9304,8 @@
       <c r="AN47" s="1"/>
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
-      <c r="AQ47" s="1"/>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>124</v>
       </c>
@@ -9309,9 +9354,8 @@
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
-      <c r="AQ48" s="4"/>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>125</v>
       </c>
@@ -9360,9 +9404,8 @@
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
       <c r="AP49" s="4"/>
-      <c r="AQ49" s="4"/>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>125</v>
       </c>
@@ -9411,9 +9454,8 @@
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
       <c r="AP50" s="4"/>
-      <c r="AQ50" s="4"/>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>125</v>
       </c>
@@ -9462,9 +9504,8 @@
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
       <c r="AP51" s="4"/>
-      <c r="AQ51" s="4"/>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>125</v>
       </c>
@@ -9513,9 +9554,8 @@
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
       <c r="AP52" s="4"/>
-      <c r="AQ52" s="4"/>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>125</v>
       </c>
@@ -9564,9 +9604,8 @@
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
       <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>125</v>
       </c>
@@ -9615,9 +9654,8 @@
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
       <c r="AP54" s="4"/>
-      <c r="AQ54" s="4"/>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
@@ -9666,9 +9704,8 @@
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
       <c r="AP55" s="4"/>
-      <c r="AQ55" s="4"/>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>125</v>
       </c>
@@ -9717,12 +9754,11 @@
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
       <c r="AP56" s="4"/>
-      <c r="AQ56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="K1:AJ1"/>
+    <mergeCell ref="AK1:AP1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
@@ -9733,7 +9769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9760,20 +9796,20 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -9784,10 +9820,10 @@
         <v>186</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>187</v>
@@ -9810,22 +9846,22 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9836,20 +9872,20 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9860,10 +9896,10 @@
         <v>170</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -9878,10 +9914,10 @@
         <v>170</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -9896,10 +9932,10 @@
         <v>170</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -9918,10 +9954,10 @@
         <v>170</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>1</v>
@@ -9942,10 +9978,10 @@
         <v>170</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -9966,10 +10002,10 @@
         <v>170</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -9990,10 +10026,10 @@
         <v>170</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>1</v>
@@ -10014,20 +10050,20 @@
         <v>109</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="21"/>
@@ -10040,20 +10076,20 @@
         <v>109</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
@@ -10066,18 +10102,18 @@
         <v>109</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="21"/>
@@ -10090,18 +10126,18 @@
         <v>109</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
@@ -10114,18 +10150,18 @@
         <v>109</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
@@ -10138,10 +10174,10 @@
         <v>109</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -10162,10 +10198,10 @@
         <v>109</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -10186,10 +10222,10 @@
         <v>109</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10208,10 +10244,10 @@
         <v>109</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -10230,10 +10266,10 @@
         <v>109</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -10252,20 +10288,20 @@
         <v>170</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -10276,20 +10312,20 @@
         <v>170</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -10300,18 +10336,18 @@
         <v>170</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -10322,18 +10358,18 @@
         <v>170</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -10344,18 +10380,18 @@
         <v>170</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -10366,10 +10402,10 @@
         <v>170</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>1</v>
@@ -10390,10 +10426,10 @@
         <v>170</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>0</v>
@@ -10414,10 +10450,10 @@
         <v>170</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -10436,10 +10472,10 @@
         <v>170</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -10458,10 +10494,10 @@
         <v>170</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -10480,13 +10516,13 @@
         <v>170</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -10500,13 +10536,13 @@
         <v>170</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -10514,16 +10550,16 @@
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E34" s="3" t="b">
         <v>0</v>
@@ -10540,13 +10576,13 @@
         <v>170</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -10560,13 +10596,13 @@
         <v>170</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -10574,16 +10610,16 @@
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>0</v>
@@ -10600,13 +10636,13 @@
         <v>170</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -10620,13 +10656,13 @@
         <v>170</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -10634,16 +10670,16 @@
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E40" s="3" t="b">
         <v>0</v>
@@ -10660,20 +10696,20 @@
         <v>170</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -10684,34 +10720,34 @@
         <v>170</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E43" s="3" t="b">
         <v>1</v>
@@ -10732,20 +10768,20 @@
         <v>170</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -10756,34 +10792,34 @@
         <v>170</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E46" s="3" t="b">
         <v>1</v>
@@ -10804,13 +10840,13 @@
         <v>109</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -10824,10 +10860,10 @@
         <v>170</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -10842,10 +10878,10 @@
         <v>170</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -10860,10 +10896,10 @@
         <v>170</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -10878,10 +10914,10 @@
         <v>170</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E51" s="3" t="b">
         <v>1</v>
@@ -10898,10 +10934,10 @@
         <v>170</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E52" s="3" t="b">
         <v>0</v>
@@ -10918,10 +10954,10 @@
         <v>170</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E53" s="3" t="b">
         <v>0</v>
@@ -10938,10 +10974,10 @@
         <v>170</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E54" s="3" t="b">
         <v>1</v>
@@ -10958,13 +10994,13 @@
         <v>109</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -10978,13 +11014,13 @@
         <v>109</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -10998,10 +11034,10 @@
         <v>109</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -11018,10 +11054,10 @@
         <v>109</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -11038,13 +11074,13 @@
         <v>170</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -11058,13 +11094,13 @@
         <v>170</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -11078,10 +11114,10 @@
         <v>170</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E61" s="3" t="b">
         <v>1</v>
@@ -11098,10 +11134,10 @@
         <v>170</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3" t="b">
         <v>0</v>
@@ -11118,13 +11154,13 @@
         <v>170</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -11138,13 +11174,13 @@
         <v>170</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -11152,16 +11188,16 @@
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E65" s="3" t="b">
         <v>0</v>
@@ -11178,13 +11214,13 @@
         <v>170</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -11198,13 +11234,13 @@
         <v>170</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -11212,16 +11248,16 @@
     </row>
     <row r="68" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E68" s="3" t="b">
         <v>0</v>
@@ -11238,13 +11274,13 @@
         <v>170</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -11258,13 +11294,13 @@
         <v>170</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -11272,16 +11308,16 @@
     </row>
     <row r="71" spans="1:8" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E71" s="3" t="b">
         <v>0</v>
@@ -11298,13 +11334,13 @@
         <v>170</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -11318,13 +11354,13 @@
         <v>170</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -11332,16 +11368,16 @@
     </row>
     <row r="74" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E74" s="3" t="b">
         <v>1</v>
@@ -11358,13 +11394,13 @@
         <v>170</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -11378,13 +11414,13 @@
         <v>170</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -11392,16 +11428,16 @@
     </row>
     <row r="77" spans="1:8" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E77" s="3" t="b">
         <v>1</v>
@@ -11418,13 +11454,13 @@
         <v>109</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -11438,10 +11474,10 @@
         <v>170</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -11456,10 +11492,10 @@
         <v>170</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -11474,10 +11510,10 @@
         <v>170</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -11492,10 +11528,10 @@
         <v>170</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E82" s="3" t="b">
         <v>1</v>
@@ -11512,10 +11548,10 @@
         <v>170</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E83" s="3" t="b">
         <v>0</v>
@@ -11532,10 +11568,10 @@
         <v>170</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E84" s="3" t="b">
         <v>0</v>
@@ -11552,10 +11588,10 @@
         <v>170</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E85" s="3" t="b">
         <v>1</v>
@@ -11572,13 +11608,13 @@
         <v>109</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -11592,13 +11628,13 @@
         <v>109</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -11612,10 +11648,10 @@
         <v>109</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E88" s="3">
         <v>0</v>
@@ -11632,10 +11668,10 @@
         <v>109</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
@@ -11652,13 +11688,13 @@
         <v>170</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -11672,13 +11708,13 @@
         <v>170</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -11692,10 +11728,10 @@
         <v>170</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E92" s="3" t="b">
         <v>1</v>
@@ -11712,10 +11748,10 @@
         <v>170</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E93" s="3" t="b">
         <v>0</v>
@@ -11732,13 +11768,13 @@
         <v>109</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -11752,10 +11788,10 @@
         <v>170</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -11770,10 +11806,10 @@
         <v>170</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -11788,10 +11824,10 @@
         <v>170</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -11806,10 +11842,10 @@
         <v>170</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E98" s="3" t="b">
         <v>1</v>
@@ -11826,10 +11862,10 @@
         <v>170</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E99" s="3" t="b">
         <v>0</v>
@@ -11846,10 +11882,10 @@
         <v>170</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E100" s="3" t="b">
         <v>0</v>
@@ -11866,10 +11902,10 @@
         <v>170</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E101" s="3" t="b">
         <v>1</v>
@@ -11886,13 +11922,13 @@
         <v>109</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -11906,13 +11942,13 @@
         <v>109</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -11926,10 +11962,10 @@
         <v>109</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E104" s="3">
         <v>0</v>
@@ -11946,10 +11982,10 @@
         <v>109</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E105" s="3">
         <v>1</v>
@@ -11966,10 +12002,10 @@
         <v>170</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E106" s="3" t="b">
         <v>0</v>
@@ -11986,10 +12022,10 @@
         <v>170</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E107" s="3" t="b">
         <v>1</v>
@@ -12006,10 +12042,10 @@
         <v>170</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E108" s="3" t="b">
         <v>1</v>
@@ -12026,10 +12062,10 @@
         <v>170</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E109" s="3" t="b">
         <v>0</v>
@@ -12046,13 +12082,13 @@
         <v>109</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -12066,10 +12102,10 @@
         <v>170</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -12084,10 +12120,10 @@
         <v>170</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -12102,10 +12138,10 @@
         <v>170</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -12120,10 +12156,10 @@
         <v>170</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E114" s="3" t="b">
         <v>1</v>
@@ -12140,10 +12176,10 @@
         <v>170</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E115" s="3" t="b">
         <v>0</v>
@@ -12160,10 +12196,10 @@
         <v>170</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E116" s="3" t="b">
         <v>0</v>
@@ -12180,10 +12216,10 @@
         <v>170</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E117" s="3" t="b">
         <v>1</v>
@@ -12200,13 +12236,13 @@
         <v>109</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -12220,13 +12256,13 @@
         <v>109</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -12240,10 +12276,10 @@
         <v>109</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E120" s="3">
         <v>0</v>
@@ -12260,10 +12296,10 @@
         <v>109</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
@@ -12280,13 +12316,13 @@
         <v>170</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -12300,13 +12336,13 @@
         <v>170</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -12320,10 +12356,10 @@
         <v>170</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E124" s="3" t="b">
         <v>1</v>
@@ -12340,10 +12376,10 @@
         <v>170</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E125" s="3" t="b">
         <v>0</v>
@@ -12360,13 +12396,13 @@
         <v>109</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -12380,10 +12416,10 @@
         <v>170</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -12398,10 +12434,10 @@
         <v>170</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -12416,10 +12452,10 @@
         <v>170</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -12434,10 +12470,10 @@
         <v>170</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E130" s="3" t="b">
         <v>1</v>
@@ -12454,10 +12490,10 @@
         <v>170</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E131" s="3" t="b">
         <v>0</v>
@@ -12474,10 +12510,10 @@
         <v>170</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E132" s="3" t="b">
         <v>0</v>
@@ -12494,10 +12530,10 @@
         <v>170</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E133" s="3" t="b">
         <v>1</v>
@@ -12514,13 +12550,13 @@
         <v>109</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -12534,13 +12570,13 @@
         <v>109</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -12554,10 +12590,10 @@
         <v>109</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
@@ -12574,10 +12610,10 @@
         <v>109</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
@@ -12594,13 +12630,13 @@
         <v>170</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -12614,13 +12650,13 @@
         <v>170</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -12634,10 +12670,10 @@
         <v>170</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E140" s="3" t="b">
         <v>1</v>
@@ -12654,10 +12690,10 @@
         <v>170</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E141" s="3" t="b">
         <v>0</v>
@@ -12674,13 +12710,13 @@
         <v>109</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -12694,10 +12730,10 @@
         <v>170</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -12712,10 +12748,10 @@
         <v>170</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -12730,10 +12766,10 @@
         <v>170</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -12748,10 +12784,10 @@
         <v>170</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E146" s="3" t="b">
         <v>1</v>
@@ -12768,10 +12804,10 @@
         <v>170</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E147" s="3" t="b">
         <v>0</v>
@@ -12788,10 +12824,10 @@
         <v>170</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E148" s="3" t="b">
         <v>0</v>
@@ -12808,10 +12844,10 @@
         <v>170</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E149" s="3" t="b">
         <v>1</v>
@@ -12828,13 +12864,13 @@
         <v>109</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -12848,13 +12884,13 @@
         <v>109</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -12868,10 +12904,10 @@
         <v>109</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
@@ -12888,10 +12924,10 @@
         <v>109</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E153" s="3">
         <v>1</v>
@@ -12908,13 +12944,13 @@
         <v>170</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -12928,13 +12964,13 @@
         <v>170</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -12948,10 +12984,10 @@
         <v>170</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E156" s="3" t="b">
         <v>1</v>
@@ -12968,10 +13004,10 @@
         <v>170</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E157" s="3" t="b">
         <v>0</v>
@@ -12988,13 +13024,13 @@
         <v>109</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -13008,10 +13044,10 @@
         <v>170</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -13026,10 +13062,10 @@
         <v>170</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -13044,10 +13080,10 @@
         <v>170</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -13062,10 +13098,10 @@
         <v>170</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E162" s="3" t="b">
         <v>1</v>
@@ -13082,10 +13118,10 @@
         <v>170</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E163" s="3" t="b">
         <v>0</v>
@@ -13102,10 +13138,10 @@
         <v>170</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E164" s="3" t="b">
         <v>0</v>
@@ -13122,10 +13158,10 @@
         <v>170</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E165" s="3" t="b">
         <v>1</v>
@@ -13142,13 +13178,13 @@
         <v>109</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -13162,13 +13198,13 @@
         <v>109</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -13182,10 +13218,10 @@
         <v>109</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E168" s="3">
         <v>0</v>
@@ -13202,10 +13238,10 @@
         <v>109</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
@@ -13222,13 +13258,13 @@
         <v>170</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -13242,13 +13278,13 @@
         <v>170</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -13262,10 +13298,10 @@
         <v>170</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E172" s="3" t="b">
         <v>1</v>
@@ -13282,10 +13318,10 @@
         <v>170</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E173" s="3" t="b">
         <v>0</v>
@@ -13302,13 +13338,13 @@
         <v>109</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -13322,10 +13358,10 @@
         <v>170</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -13340,10 +13376,10 @@
         <v>170</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -13358,10 +13394,10 @@
         <v>170</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -13376,10 +13412,10 @@
         <v>170</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E178" s="3" t="b">
         <v>1</v>
@@ -13396,10 +13432,10 @@
         <v>170</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E179" s="3" t="b">
         <v>0</v>
@@ -13416,10 +13452,10 @@
         <v>170</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E180" s="3" t="b">
         <v>0</v>
@@ -13436,10 +13472,10 @@
         <v>170</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E181" s="3" t="b">
         <v>1</v>
@@ -13456,13 +13492,13 @@
         <v>109</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -13476,13 +13512,13 @@
         <v>109</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -13496,13 +13532,13 @@
         <v>109</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -13516,13 +13552,13 @@
         <v>109</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -13536,10 +13572,10 @@
         <v>109</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E186" s="3">
         <v>0</v>
@@ -13556,10 +13592,10 @@
         <v>109</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E187" s="3">
         <v>1</v>
@@ -13576,10 +13612,10 @@
         <v>109</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E188" s="3">
         <v>2</v>
@@ -13596,10 +13632,10 @@
         <v>109</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E189" s="3">
         <v>3</v>
@@ -13616,13 +13652,13 @@
         <v>170</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -13636,13 +13672,13 @@
         <v>170</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -13656,13 +13692,13 @@
         <v>170</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -13676,13 +13712,13 @@
         <v>170</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -13696,10 +13732,10 @@
         <v>170</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E194" s="3" t="b">
         <v>1</v>
@@ -13716,10 +13752,10 @@
         <v>170</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E195" s="3" t="b">
         <v>0</v>
@@ -13736,13 +13772,13 @@
         <v>109</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -13756,10 +13792,10 @@
         <v>170</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -13774,10 +13810,10 @@
         <v>170</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -13792,10 +13828,10 @@
         <v>170</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -13810,10 +13846,10 @@
         <v>170</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E200" s="3" t="b">
         <v>1</v>
@@ -13830,10 +13866,10 @@
         <v>170</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E201" s="3" t="b">
         <v>0</v>
@@ -13850,10 +13886,10 @@
         <v>170</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E202" s="3" t="b">
         <v>0</v>
@@ -13870,10 +13906,10 @@
         <v>170</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E203" s="3" t="b">
         <v>1</v>
@@ -13890,13 +13926,13 @@
         <v>109</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -13910,13 +13946,13 @@
         <v>109</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -13930,10 +13966,10 @@
         <v>109</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E206" s="3">
         <v>0</v>
@@ -13950,10 +13986,10 @@
         <v>109</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E207" s="3">
         <v>1</v>
@@ -13970,10 +14006,10 @@
         <v>170</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E208" s="3" t="b">
         <v>0</v>
@@ -13990,10 +14026,10 @@
         <v>170</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E209" s="3" t="b">
         <v>1</v>
@@ -14010,10 +14046,10 @@
         <v>170</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E210" s="3" t="b">
         <v>1</v>
@@ -14030,10 +14066,10 @@
         <v>170</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E211" s="3" t="b">
         <v>0</v>
@@ -14050,13 +14086,13 @@
         <v>109</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -14070,10 +14106,10 @@
         <v>170</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -14088,10 +14124,10 @@
         <v>170</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -14106,10 +14142,10 @@
         <v>170</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -14124,10 +14160,10 @@
         <v>170</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E216" s="3" t="b">
         <v>1</v>
@@ -14144,10 +14180,10 @@
         <v>170</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E217" s="3" t="b">
         <v>0</v>
@@ -14164,10 +14200,10 @@
         <v>170</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E218" s="3" t="b">
         <v>0</v>
@@ -14184,10 +14220,10 @@
         <v>170</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E219" s="3" t="b">
         <v>1</v>
@@ -14204,13 +14240,13 @@
         <v>109</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -14224,13 +14260,13 @@
         <v>109</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
@@ -14244,10 +14280,10 @@
         <v>109</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E222" s="3">
         <v>0</v>
@@ -14264,10 +14300,10 @@
         <v>109</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E223" s="3">
         <v>1</v>
@@ -14284,10 +14320,10 @@
         <v>170</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E224" s="3" t="b">
         <v>0</v>
@@ -14304,10 +14340,10 @@
         <v>170</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E225" s="3" t="b">
         <v>1</v>
@@ -14324,10 +14360,10 @@
         <v>170</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E226" s="3" t="b">
         <v>1</v>
@@ -14344,10 +14380,10 @@
         <v>170</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E227" s="3" t="b">
         <v>0</v>
